--- a/Documents/RawSource/数据库设计.xlsx
+++ b/Documents/RawSource/数据库设计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/groverzhu/Documents/SourceCode/people-flow-detection/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/groverzhu/Documents/SourceCode/people-flow-detection/Documents/RawSource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD16CBA-5267-AF45-A6FA-7948CC7DD716}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E056F90A-4515-0342-8B45-26160D32D0DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="460" windowWidth="28240" windowHeight="17040" activeTab="1" xr2:uid="{A930C5B8-4670-2C49-A9A8-620694D13392}"/>
+    <workbookView xWindow="6620" yWindow="1060" windowWidth="28240" windowHeight="17040" activeTab="2" xr2:uid="{A930C5B8-4670-2C49-A9A8-620694D13392}"/>
   </bookViews>
   <sheets>
     <sheet name="属性列表" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>admin</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -884,6 +884,18 @@
   </si>
   <si>
     <t>主键，类型：Timestamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>added_camera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0..n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：character(最多50位)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +903,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -968,6 +980,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1122,7 +1140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,23 +1156,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1172,6 +1175,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1491,7 +1515,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1507,16 +1531,16 @@
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -1566,7 +1590,9 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="16" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -1627,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD765BAB-2B58-8847-8CC0-3305929FEF00}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1681,21 +1707,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="18">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
+      <c r="C4" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1731,220 +1757,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB072265-A0DA-D242-BAA7-3F1520E0591D}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="8"/>
-    <col min="4" max="4" width="15" style="8" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="8"/>
-    <col min="7" max="7" width="16" style="8" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" style="8" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="8"/>
-    <col min="11" max="11" width="23" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="13.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="15" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="5"/>
+    <col min="7" max="7" width="16" style="5" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="5"/>
+    <col min="11" max="11" width="23" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="16"/>
+      <c r="G1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="J1" s="9" t="s">
+      <c r="H1" s="16"/>
+      <c r="J1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="17">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="34">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:11" ht="17">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17">
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17">
-      <c r="G10" s="14" t="s">
+      <c r="D10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="10" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Documents/RawSource/数据库设计.xlsx
+++ b/Documents/RawSource/数据库设计.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/groverzhu/Documents/SourceCode/people-flow-detection/Documents/RawSource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\高级软件工程能力综合训练\代码\people-flow-detection\Documents\RawSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E056F90A-4515-0342-8B45-26160D32D0DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="1060" windowWidth="28240" windowHeight="17040" activeTab="2" xr2:uid="{A930C5B8-4670-2C49-A9A8-620694D13392}"/>
+    <workbookView xWindow="6624" yWindow="1056" windowWidth="28236" windowHeight="17040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="属性列表" sheetId="2" r:id="rId1"/>
     <sheet name="ER关系" sheetId="1" r:id="rId2"/>
     <sheet name="数据库表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
   <si>
     <t>admin</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -251,6 +250,889 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>character(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主键，类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>character(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>character(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多10位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>character(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多20位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>character(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多30位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>character(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多200位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主键，类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Integer</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>character(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>character(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>character(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>threhold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Integer</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Integer(历史最高)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单位小时内最高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(阈值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，类型：Timestamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>added_camera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0..n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：character(最多50位)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user online</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_introduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>added_camera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>character(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>character(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主键，类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Integer</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主键，类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>character(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>cameralog</t>
     </r>
@@ -267,643 +1149,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>character(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主键，类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>character(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>character(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多10位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>character(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多20位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>character(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多30位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>character(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多200位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主键，类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Integer</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>character(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>character(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>character(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>threhold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Integer</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Integer(历史最高)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Integer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位小时内最高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Integer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(阈值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键，类型：Timestamp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>added_camera</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0..n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型：character(最多50位)</t>
+    <t>属性说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -986,6 +1240,14 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1140,7 +1402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1177,6 +1439,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1192,10 +1460,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1511,38 +1785,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464C9F2C-24C3-294F-8523-9C6C7B01BA68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9" ht="16" customHeight="1">
+    <row r="2" spans="1:9" ht="16.05" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1839,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="16" customHeight="1">
+    <row r="3" spans="1:9" ht="16.05" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1591,10 +1865,10 @@
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" customHeight="1">
+    <row r="4" spans="1:9" ht="16.05" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1623,7 +1897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" customHeight="1">
+    <row r="5" spans="1:9" ht="16.05" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1650,19 +1924,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD765BAB-2B58-8847-8CC0-3305929FEF00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1">
+    <row r="1" spans="1:5" ht="28.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1707,21 +1981,21 @@
         <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18">
+    <row r="4" spans="1:5" ht="19.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>52</v>
+      <c r="C4" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1750,51 +2024,59 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB072265-A0DA-D242-BAA7-3F1520E0591D}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="13.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="5"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="30.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="5"/>
     <col min="7" max="7" width="16" style="5" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" style="5" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="5"/>
+    <col min="8" max="8" width="35.36328125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="10.81640625" style="5"/>
     <col min="11" max="11" width="23" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="5"/>
+    <col min="12" max="12" width="10.81640625" style="5"/>
+    <col min="13" max="13" width="13" style="5" customWidth="1"/>
+    <col min="14" max="14" width="27.7265625" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="10.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:14" ht="16.95" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="18"/>
+      <c r="D1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="18"/>
+      <c r="G1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="J1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="16"/>
+      <c r="H1" s="18"/>
+      <c r="J1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="M1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:14">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1816,168 +2098,222 @@
       <c r="J2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>29</v>
+      <c r="K2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:14" ht="16.2">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:14" ht="16.2">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:14" ht="16.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:14" ht="16.2">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:14" ht="16.2">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:14" ht="16.2">
       <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17">
+    <row r="9" spans="1:14" ht="16.2">
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.2">
+      <c r="D10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="17">
-      <c r="D10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>49</v>
+      <c r="M10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/RawSource/数据库设计.xlsx
+++ b/Documents/RawSource/数据库设计.xlsx
@@ -1402,7 +1402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1448,6 +1448,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1459,18 +1477,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1805,16 +1811,16 @@
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="16.05" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -2033,7 +2039,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -2055,26 +2061,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="24"/>
+      <c r="D1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="24"/>
+      <c r="G1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="J1" s="17" t="s">
+      <c r="H1" s="24"/>
+      <c r="J1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="M1" s="6" t="s">
+      <c r="K1" s="24"/>
+      <c r="M1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="7"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="6" t="s">
@@ -2098,13 +2104,13 @@
       <c r="J2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2168,7 +2174,7 @@
       <c r="M4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="16" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Documents/RawSource/数据库设计.xlsx
+++ b/Documents/RawSource/数据库设计.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\高级软件工程能力综合训练\代码\people-flow-detection\Documents\RawSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/groverzhu/Documents/SourceCode/people-flow-detection/Documents/RawSource/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2A272C-8CF3-C047-A8E2-5D9549D851FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6624" yWindow="1056" windowWidth="28236" windowHeight="17040" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="960" windowWidth="28240" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性列表" sheetId="2" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>admin</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -883,280 +884,51 @@
   </si>
   <si>
     <r>
-      <t>user online</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主键，类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Integer</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cameralog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sell_introduction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>added_camera</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>character(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>character(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主键，类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Integer</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>主键，类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>character(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>cameralog</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -1402,7 +1174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1445,38 +1217,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1791,38 +1557,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" customWidth="1"/>
-    <col min="8" max="8" width="19.6328125" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="16.05" customHeight="1">
+    <row r="2" spans="1:9" ht="16" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1845,7 +1611,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="16.05" customHeight="1">
+    <row r="3" spans="1:9" ht="16" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1874,7 +1640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.05" customHeight="1">
+    <row r="4" spans="1:9" ht="16" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1903,7 +1669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.05" customHeight="1">
+    <row r="5" spans="1:9" ht="16" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1930,19 +1696,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.05" customHeight="1">
+    <row r="1" spans="1:5" ht="28" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1993,7 +1759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.2">
+    <row r="4" spans="1:5" ht="18">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2035,54 +1801,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="5"/>
+    <col min="1" max="1" width="13.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="5"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.6328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="5"/>
+    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="5"/>
     <col min="7" max="7" width="16" style="5" customWidth="1"/>
-    <col min="8" max="8" width="35.36328125" style="5" customWidth="1"/>
-    <col min="9" max="10" width="10.81640625" style="5"/>
+    <col min="8" max="8" width="35.33203125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="5"/>
     <col min="11" max="11" width="23" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" style="5"/>
+    <col min="12" max="12" width="10.83203125" style="5"/>
     <col min="13" max="13" width="13" style="5" customWidth="1"/>
-    <col min="14" max="14" width="27.7265625" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="10.81640625" style="5"/>
+    <col min="14" max="14" width="27.6640625" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.95" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:14" ht="17" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="19"/>
+      <c r="D1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="G1" s="23" t="s">
+      <c r="E1" s="19"/>
+      <c r="G1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="J1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="M1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="15"/>
+      <c r="H1" s="19"/>
+      <c r="J1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="17">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -2104,17 +1868,13 @@
       <c r="J2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="K2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
     </row>
-    <row r="3" spans="1:14" ht="16.2">
+    <row r="3" spans="1:14" ht="17">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2131,7 +1891,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>11</v>
@@ -2139,14 +1899,10 @@
       <c r="K3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:14" ht="16.2">
+    <row r="4" spans="1:14" ht="17">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2171,14 +1927,10 @@
       <c r="K4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="M4" s="20"/>
+      <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" ht="16.2">
+    <row r="5" spans="1:14" ht="17">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2203,14 +1955,10 @@
       <c r="K5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
     </row>
-    <row r="6" spans="1:14" ht="16.2">
+    <row r="6" spans="1:14" ht="17">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -2229,14 +1977,10 @@
       <c r="H6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="1:14" ht="16.2">
+    <row r="7" spans="1:14" ht="17">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -2255,14 +1999,10 @@
       <c r="H7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="1:14" ht="16.2">
+    <row r="8" spans="1:14" ht="17">
       <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2275,14 +2015,10 @@
       <c r="H8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" ht="16.2">
+    <row r="9" spans="1:14" ht="17">
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
@@ -2295,14 +2031,10 @@
       <c r="H9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="1:14" ht="16.2">
+    <row r="10" spans="1:14" ht="17">
       <c r="D10" s="9" t="s">
         <v>50</v>
       </c>
@@ -2315,12 +2047,8 @@
       <c r="H10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
